--- a/shot_scene/scene_description_test.xlsx
+++ b/shot_scene/scene_description_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>AnotherMissOh16_019_0000</t>
   </si>
@@ -215,584 +215,650 @@
     <t>AnotherMissOh17_054_0000</t>
   </si>
   <si>
+    <t>AnotherMissOh17_057_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_001_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_002_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_003_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_004_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_005_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_006_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_007_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_008_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_009_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_010_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_011_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_012_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_013_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_014_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_015_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_016_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_017_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_018_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_019_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_020_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_021_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_022_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_023_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_024_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_025_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_026_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_027_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_028_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_029_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_030_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_031_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_032_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_033_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_034_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_035_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_036_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_037_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_038_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_039_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_040_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_041_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_042_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_043_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_044_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_045_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_046_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_047_0000</t>
+  </si>
+  <si>
+    <t>Additional description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_001_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_002_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_003_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_004_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_005_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_006_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_007_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_008_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_009_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_010_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_011_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_012_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_013_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_014_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_015_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_016_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_017_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_018_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is sad to see Dokyung's face bruised.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 surprises Dokyung while Dokyung is leaving the house to give Haeyoung1 a ride to work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang, Hun, Sukyung talk about Jinsang and Sukyung's kiss last night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soontack, Dokyung, and person(doctor) talk about Dokyung's future predictions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung buy flowers and visits Haeyoung1's company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is happy to see the flowers that Dokyung left at Haeyoung1's seat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin's partner and Chairman talk about what Taejin's parnter did.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 returns home and prepares ingredients to make food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi monologues about her feelings toward Haeyoung1 while coming home from buying burdock at a market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang talk on phone with Hun about discomfort with Sukyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna and Hun meet Heeran in office and Anna and Heeran talk about Hun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung look at Jinsang smoking a cigarette and reminisces about old memories.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin and Taejin's partner drink and talk about revenge against Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 talk about the flower that Dokyung bought for Haeyoung1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 talk about the flowers while they brush teeths in bathroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung asks Haeyoung1 why she fall in love with me at first sight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangseok, Yijoon, Gitae, and Hun are angry and surprised by the seizure sticker.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun, Sangseok, Yijoon, Gitae think that Jiya is the reason for the seizure sticker.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya visits a man and learns why the seizure sticker was posted in office.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin and Chairman talk about seizure of Dokyung's property.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 are on a date when Dokyung receives a phone call from Jinsang.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna and Hun create and record sound for a video.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang realize that Taejin has seized Dokyung's property and discusses with Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Haeyoung2 have a lunch together and talk about their feelings for each other.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya appears and takes her anger on Haeyoung2 who is walking with Haeyoung1, and Haeyoung1 tries to stop her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 explains to Jiya about the relationship with Dokyung at the café, and Jitta scolds Haeyoung1 to break up Dokyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung2 argues with Jiya coming out of the café</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung drinks at a restaurant with Hun, Gitae, Yijoon, and Sangseok and briefly talks about the current situation at the company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin is dumbfounded when he sees Dokyung smiling at the restaurant, so he deliberately goes into the restaurant and pays for Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung tells Jinsang about her decision regarding relationship with Jinsang and tells Jinsang to leave house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung goes out with Jinsang to see him off from home. Jinsang shed tears feeling sorry for Sukyung while walking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_032_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 comes to Taejin's house and asks Taejin to talk outside, but Taejin ignores and goes into room.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 opens her heart to Taejin about her feelings of being dumped the day before the wedding. Haeyoung1 talks about Dokyung to Taejin and leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_034_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangseok, Yijoon, Gitae, and Hun are sad to be separated from Dokyung, so they cry and drink soju. Dokyung leaves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_001_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung waits Haeyoung1 in front of company with an umbrella for Haeyoung1, and meets Haeyoung1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_036_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_002_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 shouts out the window to Dokyung that she loves Dokyung on the bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi and Kyungsu in the front yard and surprised to see Haeyoung1 and Dokyung at the door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_004_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi and Kyungsu come into the house and disapprove of Haeyoung1, who likes Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung looks out the window on a bus on the way home and is thankful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 wakes up, looks in the mirror and is happy because Haeyoung1 is loved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is happy even though Haeyoung1 misses the bus.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung wakes up Jinsang who is sleeping in his office, and tries to take him sauna.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang confesses his feelings to Dokyung and receives comfort.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_010_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung is working out at the office when Sungjin comes to receive approval, and Sukyung rejects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_011_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangseok and Hun tell Dokyung that they are not leaving, and Jiya enters the room.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya persuades Dokyung to seek forgiveness from the Chairman, but Dokyung says it is his fault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya, feeling strange, calls Sukyung and tells him that Dokyung is strange.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is happy looking at flowers and receives a call from Dokyung asking to eat dinner with Sukyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Sukyung meet Dokyung and Hun in front of their house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1, Dokyung, Hun, and Sukyung prepare and eat dinner together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Dokyung talk about Jinsang and consider what music want to listen, and Dokyung gives Haeyoung1 a gift a bracelet as a gift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang dances with many women</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun enters the club while Jinsang is having fun with his friends.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang returns to the table with his friends and drinks beer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun spots Jinsang and shouts, so Jinsang goes to catch Hun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun and Jinsang fight on the street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang returns to the club to have fun again, but leaves the club after seeing Melon at table.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 greet each other in front of Haeyoung1’s house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung finds Taejin on the pedestrian overpass and saves Taejin from falling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung sees Taejin drunk and passes by, but then goes back to Taejin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung2 asks the Chairman for a favor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung2 and Taejin meet and talk in front of the Chairman's house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang goes to Sukyung's company and keeps trying to talk, but Sukyung ignores him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang blocks the elevator door from closing and tells Sukyung to kiss him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sungjin and the company are watching Jinsang and Sukyung kiss passionately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 meets Haeyoung2 and thanks each other.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_033_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is suffering while seeing an illusion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is traveling in a car and is worried because he keeps seeing visions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soontack suggests to the doctor that he should hypnotize Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is under hypnosis, and the situation is explained by Dokyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is driving and Haeyoung1 is meditating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is meditating</t>
+  </si>
+  <si>
+    <t>Dokyung calls Haeyoung1 by text and Haeyoung1 goes to the front of the house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 talk about when they first saw each other, and Dokyung confides his situation to Haeyoung1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi tells Haeyoung1 to ask Dokyung to come in for breakfast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung waits leaning against the car in front of Haeyoung1’s house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi, Kyungsu, Haeyoung1, and Dokyung eat breakfast together</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin looks at shoes of Taejin's partner while driving and notices that Taejin's partner was at the Chairman's house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin is scammed and his company is searched and seized.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin visits the Chairman but does not meet him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin searches for his business partner while driving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin follows his business partner and fights with the partner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung calls Haeyoung1 and suggests that Dokyung and Haeyoung1 go on a trip.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 gradually understands what Dokyung said before.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung confronts Taejin in front of the building.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 runs to find Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung has a premonition of the future he saw and runs away from Taejin after calling Haeyoung1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung sees Haeyoung1 coming from the other side and runs to hug him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AnotherMissOh17_055_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soontack's senior doctor and person are talking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AnotherMissOh17_056_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh17_057_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_001_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_002_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_003_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_004_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_005_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_006_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_007_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_008_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_009_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_010_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_011_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_012_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_013_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_014_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_015_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_016_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_017_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_018_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_019_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_020_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_021_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_022_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_023_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_024_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_025_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_026_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_027_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_028_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_029_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_030_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_031_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_032_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_033_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_034_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_035_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_036_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_037_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_038_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_039_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_040_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_041_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_042_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_043_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_044_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_045_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_046_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_047_0000</t>
-  </si>
-  <si>
-    <t>Additional description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_001_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_002_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_003_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_004_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_005_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_006_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_007_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_008_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_009_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_010_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_011_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_012_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_013_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_014_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_015_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_016_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_017_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_018_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is sad to see Dokyung's face bruised.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 surprises Dokyung while Dokyung is leaving the house to give Haeyoung1 a ride to work.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang, Hun, Sukyung talk about Jinsang and Sukyung's kiss last night.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soontack, Dokyung, and person(doctor) talk about Dokyung's future predictions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung buy flowers and visits Haeyoung1's company.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is happy to see the flowers that Dokyung left at Haeyoung1's seat.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin's partner and Chairman talk about what Taejin's parnter did.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 returns home and prepares ingredients to make food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi monologues about her feelings toward Haeyoung1 while coming home from buying burdock at a market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang talk on phone with Hun about discomfort with Sukyung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anna and Hun meet Heeran in office and Anna and Heeran talk about Hun.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung look at Jinsang smoking a cigarette and reminisces about old memories.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin and Taejin's partner drink and talk about revenge against Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 talk about the flower that Dokyung bought for Haeyoung1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 talk about the flowers while they brush teeths in bathroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung asks Haeyoung1 why she fall in love with me at first sight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangseok, Yijoon, Gitae, and Hun are angry and surprised by the seizure sticker.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun, Sangseok, Yijoon, Gitae think that Jiya is the reason for the seizure sticker.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya visits a man and learns why the seizure sticker was posted in office.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin and Chairman talk about seizure of Dokyung's property.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 are on a date when Dokyung receives a phone call from Jinsang.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anna and Hun create and record sound for a video.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang realize that Taejin has seized Dokyung's property and discusses with Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 and Haeyoung2 have a lunch together and talk about their feelings for each other.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya appears and takes her anger on Haeyoung2 who is walking with Haeyoung1, and Haeyoung1 tries to stop her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 explains to Jiya about the relationship with Dokyung at the café, and Jitta scolds Haeyoung1 to break up Dokyung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung2 argues with Jiya coming out of the café</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung drinks at a restaurant with Hun, Gitae, Yijoon, and Sangseok and briefly talks about the current situation at the company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin is dumbfounded when he sees Dokyung smiling at the restaurant, so he deliberately goes into the restaurant and pays for Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung tells Jinsang about her decision regarding relationship with Jinsang and tells Jinsang to leave house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung goes out with Jinsang to see him off from home. Jinsang shed tears feeling sorry for Sukyung while walking.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_032_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 comes to Taejin's house and asks Taejin to talk outside, but Taejin ignores and goes into room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 opens her heart to Taejin about her feelings of being dumped the day before the wedding. Haeyoung1 talks about Dokyung to Taejin and leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_034_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangseok, Yijoon, Gitae, and Hun are sad to be separated from Dokyung, so they cry and drink soju. Dokyung leaves.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_001_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung waits Haeyoung1 in front of company with an umbrella for Haeyoung1, and meets Haeyoung1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_036_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_002_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 shouts out the window to Dokyung that she loves Dokyung on the bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi and Kyungsu in the front yard and surprised to see Haeyoung1 and Dokyung at the door.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_004_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi and Kyungsu come into the house and disapprove of Haeyoung1, who likes Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung looks out the window on a bus on the way home and is thankful.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 wakes up, looks in the mirror and is happy because Haeyoung1 is loved.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is happy even though Haeyoung1 misses the bus.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung wakes up Jinsang who is sleeping in his office, and tries to take him sauna.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang confesses his feelings to Dokyung and receives comfort.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_010_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung is working out at the office when Sungjin comes to receive approval, and Sukyung rejects.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_011_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangseok and Hun tell Dokyung that they are not leaving, and Jiya enters the room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya persuades Dokyung to seek forgiveness from the Chairman, but Dokyung says it is his fault.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya, feeling strange, calls Sukyung and tells him that Dokyung is strange.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is happy looking at flowers and receives a call from Dokyung asking to eat dinner with Sukyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 and Sukyung meet Dokyung and Hun in front of their house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1, Dokyung, Hun, and Sukyung prepare and eat dinner together.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 and Dokyung talk about Jinsang and consider what music want to listen, and Dokyung gives Haeyoung1 a gift a bracelet as a gift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang dances with many women</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun enters the club while Jinsang is having fun with his friends.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang returns to the table with his friends and drinks beer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun spots Jinsang and shouts, so Jinsang goes to catch Hun.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun and Jinsang fight on the street</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang returns to the club to have fun again, but leaves the club after seeing Melon at table.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 greet each other in front of Haeyoung1’s house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung finds Taejin on the pedestrian overpass and saves Taejin from falling.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung sees Taejin drunk and passes by, but then goes back to Taejin.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung2 asks the Chairman for a favor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung2 and Taejin meet and talk in front of the Chairman's house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang goes to Sukyung's company and keeps trying to talk, but Sukyung ignores him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang blocks the elevator door from closing and tells Sukyung to kiss him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sungjin and the company are watching Jinsang and Sukyung kiss passionately</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 meets Haeyoung2 and thanks each other.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_033_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is suffering while seeing an illusion.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is traveling in a car and is worried because he keeps seeing visions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soontack suggests to the doctor that he should hypnotize Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is under hypnosis, and the situation is explained by Dokyung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is driving and Haeyoung1 is meditating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is meditating</t>
-  </si>
-  <si>
-    <t>Dokyung calls Haeyoung1 by text and Haeyoung1 goes to the front of the house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 talk about when they first saw each other, and Dokyung confides his situation to Haeyoung1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi tells Haeyoung1 to ask Dokyung to come in for breakfast.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung waits leaning against the car in front of Haeyoung1’s house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi, Kyungsu, Haeyoung1, and Dokyung eat breakfast together</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin looks at shoes of Taejin's partner while driving and notices that Taejin's partner was at the Chairman's house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 hugs Dokyung and kisses him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung sits in a recording studio and sings with his eyes closed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,12 +911,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,317 +1214,328 @@
     <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.125" customWidth="1"/>
     <col min="5" max="5" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>113</v>
+      <c r="A1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
         <v>168</v>
       </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1480,16 +1560,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1497,16 +1577,16 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,16 +1594,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1531,16 +1611,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1548,16 +1628,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1565,16 +1645,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1582,16 +1662,16 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,16 +1679,16 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1616,16 +1696,16 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1633,16 +1713,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1650,16 +1730,16 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1667,33 +1747,33 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1701,33 +1781,33 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1735,33 +1815,33 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1769,10 +1849,10 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1780,10 +1860,10 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,10 +1871,10 @@
         <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1802,10 +1882,10 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1813,10 +1893,10 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1824,10 +1904,10 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1835,10 +1915,10 @@
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1846,84 +1926,123 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>53</v>
       </c>
+      <c r="D46" t="s">
+        <v>219</v>
+      </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>54</v>
       </c>
+      <c r="D47" t="s">
+        <v>220</v>
+      </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>55</v>
       </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
       <c r="E48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>65</v>
+      <c r="D58" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/shot_scene/scene_description_test.xlsx
+++ b/shot_scene/scene_description_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>AnotherMissOh16_019_0000</t>
   </si>
@@ -314,704 +314,749 @@
     <t>AnotherMissOh18_037_0000</t>
   </si>
   <si>
+    <t>AnotherMissOh18_042_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_044_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_045_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_046_0000</t>
+  </si>
+  <si>
+    <t>AnotherMissOh18_047_0000</t>
+  </si>
+  <si>
+    <t>Additional description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_001_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_002_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_003_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_004_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_005_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_006_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_007_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_008_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_009_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_010_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_011_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_012_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_013_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_014_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_015_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_016_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_017_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_018_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is sad to see Dokyung's face bruised.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 surprises Dokyung while Dokyung is leaving the house to give Haeyoung1 a ride to work.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang, Hun, Sukyung talk about Jinsang and Sukyung's kiss last night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soontack, Dokyung, and person(doctor) talk about Dokyung's future predictions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung buy flowers and visits Haeyoung1's company.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is happy to see the flowers that Dokyung left at Haeyoung1's seat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin's partner and Chairman talk about what Taejin's parnter did.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 returns home and prepares ingredients to make food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi monologues about her feelings toward Haeyoung1 while coming home from buying burdock at a market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang talk on phone with Hun about discomfort with Sukyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna and Hun meet Heeran in office and Anna and Heeran talk about Hun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung look at Jinsang smoking a cigarette and reminisces about old memories.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin and Taejin's partner drink and talk about revenge against Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 talk about the flower that Dokyung bought for Haeyoung1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 talk about the flowers while they brush teeths in bathroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung asks Haeyoung1 why she fall in love with me at first sight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangseok, Yijoon, Gitae, and Hun are angry and surprised by the seizure sticker.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun, Sangseok, Yijoon, Gitae think that Jiya is the reason for the seizure sticker.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya visits a man and learns why the seizure sticker was posted in office.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin and Chairman talk about seizure of Dokyung's property.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 are on a date when Dokyung receives a phone call from Jinsang.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna and Hun create and record sound for a video.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang realize that Taejin has seized Dokyung's property and discusses with Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Haeyoung2 have a lunch together and talk about their feelings for each other.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya appears and takes her anger on Haeyoung2 who is walking with Haeyoung1, and Haeyoung1 tries to stop her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 explains to Jiya about the relationship with Dokyung at the café, and Jitta scolds Haeyoung1 to break up Dokyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung2 argues with Jiya coming out of the café</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung drinks at a restaurant with Hun, Gitae, Yijoon, and Sangseok and briefly talks about the current situation at the company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin is dumbfounded when he sees Dokyung smiling at the restaurant, so he deliberately goes into the restaurant and pays for Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung tells Jinsang about her decision regarding relationship with Jinsang and tells Jinsang to leave house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung goes out with Jinsang to see him off from home. Jinsang shed tears feeling sorry for Sukyung while walking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_032_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 comes to Taejin's house and asks Taejin to talk outside, but Taejin ignores and goes into room.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 opens her heart to Taejin about her feelings of being dumped the day before the wedding. Haeyoung1 talks about Dokyung to Taejin and leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_034_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangseok, Yijoon, Gitae, and Hun are sad to be separated from Dokyung, so they cry and drink soju. Dokyung leaves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_001_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung waits Haeyoung1 in front of company with an umbrella for Haeyoung1, and meets Haeyoung1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh16_036_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_002_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 shouts out the window to Dokyung that she loves Dokyung on the bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi and Kyungsu in the front yard and surprised to see Haeyoung1 and Dokyung at the door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_004_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi and Kyungsu come into the house and disapprove of Haeyoung1, who likes Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung looks out the window on a bus on the way home and is thankful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 wakes up, looks in the mirror and is happy because Haeyoung1 is loved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is happy even though Haeyoung1 misses the bus.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung wakes up Jinsang who is sleeping in his office, and tries to take him sauna.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang confesses his feelings to Dokyung and receives comfort.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_010_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung is working out at the office when Sungjin comes to receive approval, and Sukyung rejects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_011_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangseok and Hun tell Dokyung that they are not leaving, and Jiya enters the room.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya persuades Dokyung to seek forgiveness from the Chairman, but Dokyung says it is his fault.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya, feeling strange, calls Sukyung and tells him that Dokyung is strange.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is happy looking at flowers and receives a call from Dokyung asking to eat dinner with Sukyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Sukyung meet Dokyung and Hun in front of their house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1, Dokyung, Hun, and Sukyung prepare and eat dinner together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Dokyung talk about Jinsang and consider what music want to listen, and Dokyung gives Haeyoung1 a gift a bracelet as a gift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang dances with many women</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun enters the club while Jinsang is having fun with his friends.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang returns to the table with his friends and drinks beer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun spots Jinsang and shouts, so Jinsang goes to catch Hun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun and Jinsang fight on the street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang returns to the club to have fun again, but leaves the club after seeing Melon at table.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 greet each other in front of Haeyoung1’s house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung finds Taejin on the pedestrian overpass and saves Taejin from falling.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung sees Taejin drunk and passes by, but then goes back to Taejin.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung2 asks the Chairman for a favor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung2 and Taejin meet and talk in front of the Chairman's house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang goes to Sukyung's company and keeps trying to talk, but Sukyung ignores him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang blocks the elevator door from closing and tells Sukyung to kiss him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sungjin and the company are watching Jinsang and Sukyung kiss passionately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 meets Haeyoung2 and thanks each other.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_033_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is suffering while seeing an illusion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is traveling in a car and is worried because he keeps seeing visions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soontack suggests to the doctor that he should hypnotize Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is under hypnosis, and the situation is explained by Dokyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung is driving and Haeyoung1 is meditating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is meditating</t>
+  </si>
+  <si>
+    <t>Dokyung calls Haeyoung1 by text and Haeyoung1 goes to the front of the house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 talk about when they first saw each other, and Dokyung confides his situation to Haeyoung1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi tells Haeyoung1 to ask Dokyung to come in for breakfast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung waits leaning against the car in front of Haeyoung1’s house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deogi, Kyungsu, Haeyoung1, and Dokyung eat breakfast together</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin looks at shoes of Taejin's partner while driving and notices that Taejin's partner was at the Chairman's house.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin is scammed and his company is searched and seized.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin visits the Chairman but does not meet him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin searches for his business partner while driving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin follows his business partner and fights with the partner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung calls Haeyoung1 and suggests that Dokyung and Haeyoung1 go on a trip.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 gradually understands what Dokyung said before.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung confronts Taejin in front of the building.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 runs to find Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung has a premonition of the future he saw and runs away from Taejin after calling Haeyoung1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung sees Haeyoung1 coming from the other side and runs to hug him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_055_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soontack's senior doctor and person are talking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh17_056_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 hugs Dokyung and kisses him.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung sits in a recording studio and sings with his eyes closed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh18_001_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Dokyung are lying in bed, and Haeyoung1 is giving a monologue.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 listen to the daydream sung by Dokyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 meets Soontack with Dokyung and hears that everything happened before was true.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soontack's senior doctor asks about Dokyung's condition and tells Dokyung and Haeyoung1 that when changes occur, the situation will also change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung tells that it's okay to Haeyoung1 who asks to live together.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun receives a phone call from Dokyung while he is moving stuffs, and is informed that the seizure has been cancelled. Hun let Gitae, Sangseok, Yijoon know the information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the seizure stickers are removed from the stuffs, and Dokyung receives a text message from Taejin saying, “You are not at fault.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin informs the Chairman to consider the \800 million he spent on bonds as wasted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taejin is leaving the Chairman's house while Jiya is trying to enter the Chairman's house by breaking through the security guards blocking the way.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya is angry at the Chairman for playing with Dokyung and warns Chairman not to touch Dokyung again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung shows a pregnancy yoga book to a student sitting in a seat and informs the student that she is pregnant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang and Sukyung are walking home from the bus stop, and are embarrassed by each other.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang and Sukyung enter the house awkwardly holding each other's bodies and awkwardly say good night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While eating with Deogi and Kyungsu, Haeyoung1 cries and says that he wants to live with Dokyung. Haeyoung1 packs her luggage and heads to Dokyung's. When Dokyung does not accept Haeyoung1, Haeyoung1 returns home and begs at Deogi for going with her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh18_015_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang tells Dokyung about Sukyung. However, Dokyung is so upset about sending Haeyoung1 back home. so he doesn't listen and is blaming himself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung go straight to Haeyoung1’s house to pick Haeyoung1 up. Haeyoung asks Deogi, who is going with him, to smile and talk to Dokyung. Dokyung takes a wrong turn on a one-way street and meets an oncoming taxi. Kyungsu and Haeyoung1 recognize Do-kyung in the oncoming car and wave hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As soon as Dokyung gets out of the car, he kneels in front of Deogi and Kyungsu and tells them that he wants to get married with Haeyoung1. Kyungsu and Deogi say they allow Dokyung and Haeyoung1 to get married.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 says goodbye to Deogi and Kyungsu and wants Deogi to take a look at him. Deogi eventually look at Haeyoung1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung and Haeyoung1 kiss passionately on sofa, and Jinsang hide behind sofa.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A scene showing the previous situation and how Jinsang ended up hiding behind the sofa. And when Sukyung enters the room and looks for Jinsang, Jinsang is caught and feels ashamed of Dokyung and Haeyoung1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang and Sukyung take a walk together. Sukyung uses Jinsang to stretch his arms and legs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna recognized a customer entering the cafe and recited his customized orders. The customer complimented Anna, and Anna called Hun on her phone and told him to bounce quickly. Hun arrives at the cafe and meets the customer. The customer asks Hun, who is feeling restless, to explain the scenario Hun wrote.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 calls Deogi to ask about the meeting of families, and Deogi reacts negatively. Haeyoung1 feels sad for Deogi due to his negative reaction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While Dokyung is working in the studio with Sangseok, Kyungsu called Dokyung and told Dokyung to take notes. Dokyung quickly write down what Kyungsu is saying, and Kyungsu says that it is good for the body and hung up the phone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna boasts about her boyfriend Hun in front of Heeran, and Hun is embarrassed. Afterwards, when Hun tells Anna that I love you, Anna screams and hugs Hun.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh18_026_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung, Haeyoung1, Jinsang, and Sukyung drink beer in the living room. Dokyung tells Jinsang and Sukyung that she will marry Haeyoung1, and Sukyung confesses to Dokyung and Haeyoung1 that she is pregnant. Afterwards, Hun and Anna come home and talk about saying I love you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 sees the side dishes and letter in the cooler and realizes that they were sent by Deogi. The letter is from Deogi to Dokyung.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyungsu is watching TV and taking notes, and Deogi is sleeping behind Kyungsu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung, Jiya, Deogi and Haeyoung1 have a meal together. Jiya is not happy that Dokyung and Haeyoung1 are living together before wedding. Dokyung tells Jiya about Sukyung and silences her. Deogi says congratulations to Jiya.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya and Deogi greet each other and part ways. Haeyoung1 sees Deogi off, and Jiya asks Dokyung one more time if Sukyung's pregnancy is real.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang receives Hun's call and enters the house with a toilet plunger.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung desperately prevents Hun, who is in a hurry to use the bathroom, from entering.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sukyung is embarrassed that the toilet is clogged because of her and keeps blocking Jinsang from going in. Jinsang persuades Sukyung to go into the bathroom and unclog the toilet. Jinsang informs Hun and Jinsang that the toilet was pierced.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh18_034_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung arrives at the restaurant and greets people with similar occupations. When Haeyoung1 texts Do-kyung that she wants to eat pork belly, Dokyung heads home instead of eating dinner at the restaurant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnotherMissOh18_035_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 is trying to eat dinner alone when Dokyung arrive home. Dokyung buys pork belly and enjoys eating pork belly with Haeyoung1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiya calls Sukyung and congratulates Sukyung on pregnancy. However, Sukyung talks to Jiya about the story that Sukyung and Jinsang are not enjoying a proper romance. Sukyung feels sad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hun tells Haeyoung1 that he enjoyed the side dish Deogi made, and returns the containers. Afterwards, Hun advises Dokyung to call the person he met at the restaurant because Dokyung came home early from the restaurant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AnotherMissOh18_038_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While watching a movie with Dokyung, Haeyoung1 recalls the moment he and Taejin parted ways by the lake.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AnotherMissOh18_039_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna is extremely jealous that Jinsang and Sukyung's love story is going in reverse, and Hun is embarrassed when he hears this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AnotherMissOh18_040_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To ease Sukyung's pressure, Jinsang paid Hun and Anna to act and ask them to act.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AnotherMissOh18_041_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_042_0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung2 tells Haeyoung1 that he cannot attend the wedding, and that he hopes Dokyung and Haeyung1 can live happily.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jinsang and Sukyung are stretching together outdoors. Meanwhile, Jinsang injured his knee.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AnotherMissOh18_043_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_044_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_045_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_046_0000</t>
-  </si>
-  <si>
-    <t>AnotherMissOh18_047_0000</t>
-  </si>
-  <si>
-    <t>Additional description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_001_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_002_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_003_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_004_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_005_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_006_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_007_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_008_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_009_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_010_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_011_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_012_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_013_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_014_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_015_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_016_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_017_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_018_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is sad to see Dokyung's face bruised.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 surprises Dokyung while Dokyung is leaving the house to give Haeyoung1 a ride to work.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang, Hun, Sukyung talk about Jinsang and Sukyung's kiss last night.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soontack, Dokyung, and person(doctor) talk about Dokyung's future predictions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung buy flowers and visits Haeyoung1's company.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is happy to see the flowers that Dokyung left at Haeyoung1's seat.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin's partner and Chairman talk about what Taejin's parnter did.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 returns home and prepares ingredients to make food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi monologues about her feelings toward Haeyoung1 while coming home from buying burdock at a market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang talk on phone with Hun about discomfort with Sukyung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anna and Hun meet Heeran in office and Anna and Heeran talk about Hun.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung look at Jinsang smoking a cigarette and reminisces about old memories.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin and Taejin's partner drink and talk about revenge against Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 talk about the flower that Dokyung bought for Haeyoung1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 talk about the flowers while they brush teeths in bathroom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung asks Haeyoung1 why she fall in love with me at first sight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangseok, Yijoon, Gitae, and Hun are angry and surprised by the seizure sticker.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun, Sangseok, Yijoon, Gitae think that Jiya is the reason for the seizure sticker.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya visits a man and learns why the seizure sticker was posted in office.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin and Chairman talk about seizure of Dokyung's property.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 are on a date when Dokyung receives a phone call from Jinsang.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anna and Hun create and record sound for a video.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang realize that Taejin has seized Dokyung's property and discusses with Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 and Haeyoung2 have a lunch together and talk about their feelings for each other.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya appears and takes her anger on Haeyoung2 who is walking with Haeyoung1, and Haeyoung1 tries to stop her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 explains to Jiya about the relationship with Dokyung at the café, and Jitta scolds Haeyoung1 to break up Dokyung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung2 argues with Jiya coming out of the café</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung drinks at a restaurant with Hun, Gitae, Yijoon, and Sangseok and briefly talks about the current situation at the company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin is dumbfounded when he sees Dokyung smiling at the restaurant, so he deliberately goes into the restaurant and pays for Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung tells Jinsang about her decision regarding relationship with Jinsang and tells Jinsang to leave house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung goes out with Jinsang to see him off from home. Jinsang shed tears feeling sorry for Sukyung while walking.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_032_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 comes to Taejin's house and asks Taejin to talk outside, but Taejin ignores and goes into room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 opens her heart to Taejin about her feelings of being dumped the day before the wedding. Haeyoung1 talks about Dokyung to Taejin and leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_034_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangseok, Yijoon, Gitae, and Hun are sad to be separated from Dokyung, so they cry and drink soju. Dokyung leaves.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_001_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung waits Haeyoung1 in front of company with an umbrella for Haeyoung1, and meets Haeyoung1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 scolds Dokyung for bringing two umbrellas. Afterwards, Do-kyung walks away sharing Haeyoung1's umbrella, and Dokyung tells Haeyoung1 that he loves her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh16_036_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_002_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 shouts out the window to Dokyung that she loves Dokyung on the bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi and Kyungsu in the front yard and surprised to see Haeyoung1 and Dokyung at the door.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_004_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi and Kyungsu come into the house and disapprove of Haeyoung1, who likes Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung looks out the window on a bus on the way home and is thankful.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 wakes up, looks in the mirror and is happy because Haeyoung1 is loved.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is happy even though Haeyoung1 misses the bus.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung wakes up Jinsang who is sleeping in his office, and tries to take him sauna.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang confesses his feelings to Dokyung and receives comfort.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_010_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung is working out at the office when Sungjin comes to receive approval, and Sukyung rejects.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_011_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sangseok and Hun tell Dokyung that they are not leaving, and Jiya enters the room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya persuades Dokyung to seek forgiveness from the Chairman, but Dokyung says it is his fault.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya, feeling strange, calls Sukyung and tells him that Dokyung is strange.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is happy looking at flowers and receives a call from Dokyung asking to eat dinner with Sukyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 and Sukyung meet Dokyung and Hun in front of their house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1, Dokyung, Hun, and Sukyung prepare and eat dinner together.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 and Dokyung talk about Jinsang and consider what music want to listen, and Dokyung gives Haeyoung1 a gift a bracelet as a gift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang dances with many women</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun enters the club while Jinsang is having fun with his friends.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang returns to the table with his friends and drinks beer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun spots Jinsang and shouts, so Jinsang goes to catch Hun.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun and Jinsang fight on the street</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang returns to the club to have fun again, but leaves the club after seeing Melon at table.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 greet each other in front of Haeyoung1’s house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung finds Taejin on the pedestrian overpass and saves Taejin from falling.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung sees Taejin drunk and passes by, but then goes back to Taejin.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung2 asks the Chairman for a favor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung2 and Taejin meet and talk in front of the Chairman's house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang goes to Sukyung's company and keeps trying to talk, but Sukyung ignores him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang blocks the elevator door from closing and tells Sukyung to kiss him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sungjin and the company are watching Jinsang and Sukyung kiss passionately</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 meets Haeyoung2 and thanks each other.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_033_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is suffering while seeing an illusion.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is traveling in a car and is worried because he keeps seeing visions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soontack suggests to the doctor that he should hypnotize Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is under hypnosis, and the situation is explained by Dokyung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung is driving and Haeyoung1 is meditating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is meditating</t>
-  </si>
-  <si>
-    <t>Dokyung calls Haeyoung1 by text and Haeyoung1 goes to the front of the house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 talk about when they first saw each other, and Dokyung confides his situation to Haeyoung1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi tells Haeyoung1 to ask Dokyung to come in for breakfast.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung waits leaning against the car in front of Haeyoung1’s house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deogi, Kyungsu, Haeyoung1, and Dokyung eat breakfast together</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin looks at shoes of Taejin's partner while driving and notices that Taejin's partner was at the Chairman's house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin is scammed and his company is searched and seized.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin visits the Chairman but does not meet him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin searches for his business partner while driving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin follows his business partner and fights with the partner.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung calls Haeyoung1 and suggests that Dokyung and Haeyoung1 go on a trip.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 gradually understands what Dokyung said before.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung confronts Taejin in front of the building.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 runs to find Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung has a premonition of the future he saw and runs away from Taejin after calling Haeyoung1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung sees Haeyoung1 coming from the other side and runs to hug him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_055_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soontack's senior doctor and person are talking.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh17_056_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 hugs Dokyung and kisses him.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung sits in a recording studio and sings with his eyes closed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh18_001_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 and Dokyung are lying in bed, and Haeyoung1 is giving a monologue.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 listen to the daydream sung by Dokyung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 meets Soontack with Dokyung and hears that everything happened before was true.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soontack's senior doctor asks about Dokyung's condition and tells Dokyung and Haeyoung1 that when changes occur, the situation will also change.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung tells that it's okay to Haeyoung1 who asks to live together.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun receives a phone call from Dokyung while he is moving stuffs, and is informed that the seizure has been cancelled. Hun let Gitae, Sangseok, Yijoon know the information.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All the seizure stickers are removed from the stuffs, and Dokyung receives a text message from Taejin saying, “You are not at fault.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin informs the Chairman to consider the \800 million he spent on bonds as wasted.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taejin is leaving the Chairman's house while Jiya is trying to enter the Chairman's house by breaking through the security guards blocking the way.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya is angry at the Chairman for playing with Dokyung and warns Chairman not to touch Dokyung again.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung shows a pregnancy yoga book to a student sitting in a seat and informs the student that she is pregnant.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang and Sukyung are walking home from the bus stop, and are embarrassed by each other.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang and Sukyung enter the house awkwardly holding each other's bodies and awkwardly say good night.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>While eating with Deogi and Kyungsu, Haeyoung1 cries and says that he wants to live with Dokyung. Haeyoung1 packs her luggage and heads to Dokyung's. When Dokyung does not accept Haeyoung1, Haeyoung1 returns home and begs at Deogi for going with her.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh18_015_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang tells Dokyung about Sukyung. However, Dokyung is so upset about sending Haeyoung1 back home. so he doesn't listen and is blaming himself.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung go straight to Haeyoung1’s house to pick Haeyoung1 up. Haeyoung asks Deogi, who is going with him, to smile and talk to Dokyung. Dokyung takes a wrong turn on a one-way street and meets an oncoming taxi. Kyungsu and Haeyoung1 recognize Do-kyung in the oncoming car and wave hand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As soon as Dokyung gets out of the car, he kneels in front of Deogi and Kyungsu and tells them that he wants to get married with Haeyoung1. Kyungsu and Deogi say they allow Dokyung and Haeyoung1 to get married.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 says goodbye to Deogi and Kyungsu and wants Deogi to take a look at him. Deogi eventually look at Haeyoung1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung and Haeyoung1 kiss passionately on sofa, and Jinsang hide behind sofa.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A scene showing the previous situation and how Jinsang ended up hiding behind the sofa. And when Sukyung enters the room and looks for Jinsang, Jinsang is caught and feels ashamed of Dokyung and Haeyoung1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang and Sukyung take a walk together. Sukyung uses Jinsang to stretch his arms and legs.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anna recognized a customer entering the cafe and recited his customized orders. The customer complimented Anna, and Anna called Hun on her phone and told him to bounce quickly. Hun arrives at the cafe and meets the customer. The customer asks Hun, who is feeling restless, to explain the scenario Hun wrote.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 calls Deogi to ask about the meeting of families, and Deogi reacts negatively. Haeyoung1 feels sad for Deogi due to his negative reaction.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>While Dokyung is working in the studio with Sangseok, Kyungsu called Dokyung and told Dokyung to take notes. Dokyung quickly write down what Kyungsu is saying, and Kyungsu says that it is good for the body and hung up the phone.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anna boasts about her boyfriend Hun in front of Heeran, and Hun is embarrassed. Afterwards, when Hun tells Anna that I love you, Anna screams and hugs Hun.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh18_026_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung, Haeyoung1, Jinsang, and Sukyung drink beer in the living room. Dokyung tells Jinsang and Sukyung that she will marry Haeyoung1, and Sukyung confesses to Dokyung and Haeyoung1 that she is pregnant. Afterwards, Hun and Anna come home and talk about saying I love you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 sees the side dishes and letter in the cooler and realizes that they were sent by Deogi. The letter is from Deogi to Dokyung.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kyungsu is watching TV and taking notes, and Deogi is sleeping behind Kyungsu.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung, Jiya, Deogi and Haeyoung1 have a meal together. Jiya is not happy that Dokyung and Haeyoung1 are living together before wedding. Dokyung tells Jiya about Sukyung and silences her. Deogi says congratulations to Jiya.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya and Deogi greet each other and part ways. Haeyoung1 sees Deogi off, and Jiya asks Dokyung one more time if Sukyung's pregnancy is real.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jinsang receives Hun's call and enters the house with a toilet plunger.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung desperately prevents Hun, who is in a hurry to use the bathroom, from entering.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sukyung is embarrassed that the toilet is clogged because of her and keeps blocking Jinsang from going in. Jinsang persuades Sukyung to go into the bathroom and unclog the toilet. Jinsang informs Hun and Jinsang that the toilet was pierced.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh18_034_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dokyung arrives at the restaurant and greets people with similar occupations. When Haeyoung1 texts Do-kyung that she wants to eat pork belly, Dokyung heads home instead of eating dinner at the restaurant.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnotherMissOh18_035_0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haeyoung1 is trying to eat dinner alone when Dokyung arrive home. Dokyung buys pork belly and enjoys eating pork belly with Haeyoung1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiya calls Sukyung and congratulates Sukyung on pregnancy. However, Sukyung talks to Jiya about the story that Sukyung and Jinsang are not enjoying a proper romance. Sukyung feels sad.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hun tells Haeyoung1 that he enjoyed the side dish Deogi made, and returns the containers. Afterwards, Hun advises Dokyung to call the person he met at the restaurant because Dokyung came home early from the restaurant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While Dokyung is preparing to shoot a wedding with people, he receive a call from Haeyoung and they are having a conversation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokyung hangs up the phone with Haeyoung1 and thinks about how he came to love Haeyoung1 while looking at the wedding rings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While Dokyung was thinking, a car hit Dokyung. Dokyung feels that the death he always predicted is different from reality. When Haeyoung1 sees the ambulance, he feels strange and starts running. Go next to Dokyung and feel sad.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All including Haeyoung1, Deogi, Kyungsu, Jiya, Jinsang, and Sukyung are waiting in front of the operating room for Dokyung to come out. To set a wedding date, Deogi suddenly looks at the calendar on the table and suggests September 3rd. As Deogi and Jiya start arguing about wedding present, other people start arguing too.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haeyoung1 and Dokyung got married as planned, and everyone congratulated them. Dokyung said that the most important thing in life is a happy heart. Haeyoung1 said everything was perfect.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1356,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1372,377 +1417,377 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
         <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
         <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1750,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
         <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1770,19 +1815,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1790,19 +1835,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1810,19 +1855,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1830,19 +1875,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,19 +1895,19 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
         <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1870,19 +1915,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
         <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1890,19 +1935,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1910,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
         <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,19 +1975,19 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
         <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,19 +1995,19 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
         <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1970,19 +2015,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1990,39 +2035,39 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
         <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E33" t="s">
         <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,39 +2075,39 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
         <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,39 +2115,39 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E37" t="s">
         <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2110,13 +2155,13 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
         <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2124,10 +2169,13 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>269</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2135,10 +2183,13 @@
         <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>271</v>
+      </c>
+      <c r="F40" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,10 +2197,13 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>273</v>
+      </c>
+      <c r="F41" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,10 +2211,13 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>275</v>
+      </c>
+      <c r="F42" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2168,10 +2225,13 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2179,10 +2239,13 @@
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>278</v>
+      </c>
+      <c r="F44" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2190,10 +2253,13 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2201,10 +2267,13 @@
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,10 +2281,13 @@
         <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,10 +2295,13 @@
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
@@ -2234,7 +2309,7 @@
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
@@ -2242,7 +2317,7 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
@@ -2250,7 +2325,7 @@
         <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
@@ -2258,7 +2333,7 @@
         <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
@@ -2266,7 +2341,7 @@
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
@@ -2274,7 +2349,7 @@
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
@@ -2282,23 +2357,23 @@
         <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
@@ -2306,7 +2381,7 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
